--- a/DocumentsForAssignments/Parts.xlsx
+++ b/DocumentsForAssignments/Parts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\1BerkeleyL2P\RoboticEmbeddedProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\1BerkeleyL2P\RoboticEmbeddedProject\Project-206-249\DocumentsForAssignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Product</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Whiteboard</t>
   </si>
   <si>
-    <t>USB camera</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -117,6 +114,12 @@
   </si>
   <si>
     <t>HDMI  Cable</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Expo-Erase-Markers-Black-86001/dp/B000N35G5S/ref=sr_1_8?ie=UTF8&amp;qid=1401373557&amp;sr=8-8&amp;keywords=expo%2Bmarkers%2Bdry%2Berase&amp;th=1</t>
+  </si>
+  <si>
+    <t>Whiteboard Markers</t>
   </si>
 </sst>
 </file>
@@ -459,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +477,7 @@
   <sheetData>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -485,7 +488,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -499,7 +502,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -509,12 +512,12 @@
       </c>
       <c r="F8">
         <f xml:space="preserve"> SUM(D7:D31)</f>
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -525,7 +528,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -536,7 +539,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -547,7 +550,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -558,7 +561,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -569,7 +572,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -580,7 +583,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -591,7 +594,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -602,7 +605,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -613,10 +616,10 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -624,18 +627,24 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
         <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
